--- a/tests/resources/LN.xlsx
+++ b/tests/resources/LN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradb\Documents\Python\koala_xlcalculator\tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6EA6B1-DD39-4142-B5C2-A7FAAE710276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B1DE80-6783-478C-AE4F-8F9F62C64CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="158" windowWidth="21480" windowHeight="12742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="158" windowWidth="21480" windowHeight="12742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,12 +352,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
@@ -363,7 +367,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" s="1">
         <f>LN(2.7182818)</f>
         <v>0.9999999895305024</v>
       </c>
